--- a/2025-01-13 typescript/ts-node/report.xlsx
+++ b/2025-01-13 typescript/ts-node/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Produktų pardavimo ataskaita</t>
   </si>
@@ -29,6 +29,54 @@
   </si>
   <si>
     <t>Iš viso</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Desk Chair</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Accessories</t>
+  </si>
+  <si>
+    <t>Parduota už:</t>
+  </si>
+  <si>
+    <t>Parduota prekių:</t>
   </si>
 </sst>
 </file>
@@ -417,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" ht="55" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -445,6 +493,192 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>700</v>
+      </c>
+      <c r="E6">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>39370</v>
       </c>
     </row>
   </sheetData>
